--- a/07_documentation/datasets.xlsx
+++ b/07_documentation/datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julian/Repositories/AgWISE-generic/07_documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA82FFB-177C-AF49-85D1-B137FCA06982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7C789E-F3CB-AB4F-A8CA-814DA0CC3F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="500" windowWidth="27700" windowHeight="16320" xr2:uid="{471A439A-4519-574D-8A00-B683E52A5A41}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="134">
   <si>
     <t>Theme</t>
   </si>
@@ -146,6 +146,9 @@
     <t>1983-2016</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>https://www.chc.ucsb.edu/data/chirtsdaily</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
     <t>Latency</t>
   </si>
   <si>
+    <t>unk</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -210,6 +216,228 @@
   </si>
   <si>
     <t>Long title</t>
+  </si>
+  <si>
+    <t>AgERA5</t>
+  </si>
+  <si>
+    <t>Weather and climate: AgERA5</t>
+  </si>
+  <si>
+    <t>https://cds.climate.copernicus.eu/cdsapp#!/dataset/sis-agrometeorological-indicators?tab=overview</t>
+  </si>
+  <si>
+    <t>AgERA5: Agrometeorological indicators from 1979 to present derived from reanalysis</t>
+  </si>
+  <si>
+    <t>This dataset provides daily surface meteorological data for the period from 1979 to present as input for agriculture and agro-ecological studies. This dataset is based on the hourly ECMWF ERA5 data at surface level and is referred to as AgERA5. Acquisition and pre-processing of the original ERA5 data is a complex and specialized job</t>
+  </si>
+  <si>
+    <t>0.1 x 0.1 degree</t>
+  </si>
+  <si>
+    <t>90ºN to 90ºS</t>
+  </si>
+  <si>
+    <t>1979-present</t>
+  </si>
+  <si>
+    <t>8 days</t>
+  </si>
+  <si>
+    <t>Copernicus license</t>
+  </si>
+  <si>
+    <t>10m wind speed</t>
+  </si>
+  <si>
+    <t>Mean temperature</t>
+  </si>
+  <si>
+    <t>Solar radiation</t>
+  </si>
+  <si>
+    <t>Mean wind speed at a height of 10 metres above the surface over the period 00h-24h local time</t>
+  </si>
+  <si>
+    <t>Total volume of liquid water (cubic mm) precipitated over the period 00h-24h local time per unit of area (mm sq.), per day.</t>
+  </si>
+  <si>
+    <t>Total amount of energy provided by solar radiation at the surface over the period 00-24h local time per unit area and time.</t>
+  </si>
+  <si>
+    <t>Air temperature at a height of 2 metres above the surface. Maximum of 00-24h period local time.</t>
+  </si>
+  <si>
+    <t>Air temperature at a height of 2 metres above the surface. Average of 00-24h period local time.</t>
+  </si>
+  <si>
+    <t>Air temperature at a height of 2 metres above the surface. Minimum of 00-24h period local time.</t>
+  </si>
+  <si>
+    <t>Relative humidity at 06h, 09h, 12h. 15h, 18h (local time) at a height of 2 metres above the surface. This variable describes the amount of water vapour present in air expressed as a percentage of the amount needed for saturation at the same temperature.</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>J/m2/day</t>
+  </si>
+  <si>
+    <t>WorldClim</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Static avg.</t>
+  </si>
+  <si>
+    <t>Weather and climate: WorldClim</t>
+  </si>
+  <si>
+    <t>WorldClim average climatologies</t>
+  </si>
+  <si>
+    <t>WorldClim is a database of high spatial resolution global weather and climate data. These data can be used for mapping and spatial modeling. The data are provided for use in research and related activities; and some specialized skill and knowledge is needed to use them. For technical detailes refer to [Fick and Hijmans, 2017)(https://rmets.onlinelibrary.wiley.com/doi/abs/10.1002/joc.5086)</t>
+  </si>
+  <si>
+    <t>30 arc-sec</t>
+  </si>
+  <si>
+    <t>90ºN to 60ºS</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>1970-2000</t>
+  </si>
+  <si>
+    <t>Unclear</t>
+  </si>
+  <si>
+    <t>https://worldclim.org/</t>
+  </si>
+  <si>
+    <t>Total precipitation accumulated over the course of a month</t>
+  </si>
+  <si>
+    <t>mm/month</t>
+  </si>
+  <si>
+    <t>worldclim.png</t>
+  </si>
+  <si>
+    <t>Average monthly minimum temperature</t>
+  </si>
+  <si>
+    <t>Average monthly maximum temperature</t>
+  </si>
+  <si>
+    <t>Avg. temperature</t>
+  </si>
+  <si>
+    <t>Average monthly average temperature</t>
+  </si>
+  <si>
+    <t>Wind speed</t>
+  </si>
+  <si>
+    <t>kJ/m2/day</t>
+  </si>
+  <si>
+    <t>Monthly average solar radiation</t>
+  </si>
+  <si>
+    <t>Monthly average wind speed</t>
+  </si>
+  <si>
+    <t>TerraClimate</t>
+  </si>
+  <si>
+    <t>Weather and climate: TerraClimate</t>
+  </si>
+  <si>
+    <t>TerraClimate is a dataset of monthly climate and climatic water balance for global terrestrial surfaces from 1958-2019. These data provide important inputs for ecological and hydrological studies at global scales that require high spatial resolution and time-varying data. All data have monthly temporal resolution and a ~4-km (1/24th degree) spatial resolution. The data cover the period from 1958-2020. We plan to update these data periodically (annually).</t>
+  </si>
+  <si>
+    <t>2.5 arc-min</t>
+  </si>
+  <si>
+    <t>TerraClimate global dataset, average climatologies</t>
+  </si>
+  <si>
+    <t>Weather and climate: TerraClimate climatology</t>
+  </si>
+  <si>
+    <t>https://www.climatologylab.org/terraclimate.html</t>
+  </si>
+  <si>
+    <t>1958-present</t>
+  </si>
+  <si>
+    <t>yearly</t>
+  </si>
+  <si>
+    <t>terraclimate.png</t>
+  </si>
+  <si>
+    <t>Total monthly accumulated precipitation</t>
+  </si>
+  <si>
+    <t>w/m2</t>
+  </si>
+  <si>
+    <t>Downward surface shortwave radiation</t>
+  </si>
+  <si>
+    <t>TerraClimate global dataset, average climatologies and monthly time series</t>
+  </si>
+  <si>
+    <t>Static avg., monthly time series</t>
+  </si>
+  <si>
+    <t>Soil</t>
+  </si>
+  <si>
+    <t>iSDA</t>
+  </si>
+  <si>
+    <t>Soils: iSDA</t>
+  </si>
+  <si>
+    <t>iSDA Soils Africa dataset</t>
+  </si>
+  <si>
+    <t>iSDA soil is the first field-level soil map for Africa, with 20+ soil properties predicted at 30m resolution for the entire continent. Our development process applies predictive machine learning technology using data from over 130,000 soil samples, much of it based on years of research by the African Soil Information Service (AfSIS) and other soil data resources.</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>https://www.isda-africa.com/isdasoil/</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>Soil pH</t>
+  </si>
+  <si>
+    <t>Carbon, organic</t>
+  </si>
+  <si>
+    <t>Soil organic carbon content</t>
+  </si>
+  <si>
+    <t>g/kg</t>
   </si>
 </sst>
 </file>
@@ -254,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -270,6 +498,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -586,19 +820,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D66D72-D802-CD45-955D-C65C9DF36BAB}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="M21" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="77.33203125" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -607,7 +842,7 @@
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="48.33203125" bestFit="1" customWidth="1"/>
@@ -634,13 +869,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -655,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
@@ -670,10 +905,10 @@
         <v>12</v>
       </c>
       <c r="S1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U1" t="s">
         <v>13</v>
@@ -699,10 +934,10 @@
         <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>20</v>
@@ -729,7 +964,7 @@
         <v>27</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>28</v>
@@ -764,10 +999,10 @@
         <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>33</v>
@@ -785,28 +1020,28 @@
         <v>35</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -829,10 +1064,10 @@
         <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>33</v>
@@ -850,28 +1085,28 @@
         <v>35</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="68" x14ac:dyDescent="0.2">
@@ -894,10 +1129,10 @@
         <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>33</v>
@@ -915,36 +1150,1368 @@
         <v>35</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1" xr:uid="{F560DCF2-DF68-BB4E-865D-EA90F1721A5D}"/>
     <hyperlink ref="P3" r:id="rId2" xr:uid="{34CE7BAD-BD25-AE4F-B2FB-60CEE68E69A4}"/>
     <hyperlink ref="P4" r:id="rId3" xr:uid="{D8ED1504-6386-6845-B130-CCDE9A290269}"/>
     <hyperlink ref="P5" r:id="rId4" xr:uid="{90358357-97BF-544B-9385-9A64801A1668}"/>
+    <hyperlink ref="P6" r:id="rId5" location="!/dataset/sis-agrometeorological-indicators?tab=overview" xr:uid="{6BC3418B-6598-8D43-9B40-4E19F967E2DD}"/>
+    <hyperlink ref="P13" r:id="rId6" xr:uid="{5420838C-3EA6-7C4A-AA66-C4D70BCDA6DF}"/>
+    <hyperlink ref="P14" r:id="rId7" xr:uid="{B877DA5E-2D77-F740-B0E1-AA02C645470F}"/>
+    <hyperlink ref="P15" r:id="rId8" xr:uid="{46658B95-2034-2149-B12F-38810C900B74}"/>
+    <hyperlink ref="P16" r:id="rId9" xr:uid="{3B09251D-B0B3-FD4D-AFA0-3826A37E01FC}"/>
+    <hyperlink ref="P17" r:id="rId10" xr:uid="{1D79AC32-DF1A-5E48-8A74-103C6CCDF076}"/>
+    <hyperlink ref="P18" r:id="rId11" xr:uid="{3687014C-90CD-EF44-8C31-BCA933469977}"/>
+    <hyperlink ref="P7" r:id="rId12" location="!/dataset/sis-agrometeorological-indicators?tab=overview" xr:uid="{4866007C-AEE3-844E-8695-5F6555283E07}"/>
+    <hyperlink ref="P8" r:id="rId13" location="!/dataset/sis-agrometeorological-indicators?tab=overview" xr:uid="{21B8515F-37BF-B645-8AC5-89E7C280F900}"/>
+    <hyperlink ref="P9" r:id="rId14" location="!/dataset/sis-agrometeorological-indicators?tab=overview" xr:uid="{A4DC6EAF-5514-1543-AA89-FAEF30C12816}"/>
+    <hyperlink ref="P10" r:id="rId15" location="!/dataset/sis-agrometeorological-indicators?tab=overview" xr:uid="{A5911815-9CB7-324F-B526-C74968C974C3}"/>
+    <hyperlink ref="P11" r:id="rId16" location="!/dataset/sis-agrometeorological-indicators?tab=overview" xr:uid="{C77758F5-5C94-3E4A-874F-A59B65ACEB60}"/>
+    <hyperlink ref="P12" r:id="rId17" location="!/dataset/sis-agrometeorological-indicators?tab=overview" xr:uid="{0FB668AC-1474-9C47-9150-CAEE168442E9}"/>
+    <hyperlink ref="P19" r:id="rId18" xr:uid="{55D336DB-D7D7-594D-830B-3338D1E09025}"/>
+    <hyperlink ref="P20" r:id="rId19" xr:uid="{0AEAFFB2-A691-4E4A-957C-451165B8C0C0}"/>
+    <hyperlink ref="P21" r:id="rId20" xr:uid="{8B093B0B-E5FB-5942-ADEA-8A6BD68D7165}"/>
+    <hyperlink ref="P22" r:id="rId21" xr:uid="{7735BF04-B198-DB4A-8BAC-A79200868D1A}"/>
+    <hyperlink ref="P23" r:id="rId22" xr:uid="{E7164C61-78AB-DC4E-9BCD-1EF0E9944E36}"/>
+    <hyperlink ref="P24" r:id="rId23" xr:uid="{E4A100CD-52A1-F246-A9ED-9805F9B8DB0A}"/>
+    <hyperlink ref="P25" r:id="rId24" xr:uid="{C9563803-BB6F-AF47-A4AD-983D546B9767}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/07_documentation/datasets.xlsx
+++ b/07_documentation/datasets.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julian/Repositories/AgWISE-generic/07_documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7C789E-F3CB-AB4F-A8CA-814DA0CC3F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD5DA9C-6B8B-144C-966A-DFD0D51C0232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="500" windowWidth="27700" windowHeight="16320" xr2:uid="{471A439A-4519-574D-8A00-B683E52A5A41}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="27700" windowHeight="16320" xr2:uid="{471A439A-4519-574D-8A00-B683E52A5A41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="131">
   <si>
     <t>Theme</t>
   </si>
@@ -359,9 +359,6 @@
     <t>TerraClimate</t>
   </si>
   <si>
-    <t>Weather and climate: TerraClimate</t>
-  </si>
-  <si>
     <t>TerraClimate is a dataset of monthly climate and climatic water balance for global terrestrial surfaces from 1958-2019. These data provide important inputs for ecological and hydrological studies at global scales that require high spatial resolution and time-varying data. All data have monthly temporal resolution and a ~4-km (1/24th degree) spatial resolution. The data cover the period from 1958-2020. We plan to update these data periodically (annually).</t>
   </si>
   <si>
@@ -393,12 +390,6 @@
   </si>
   <si>
     <t>Downward surface shortwave radiation</t>
-  </si>
-  <si>
-    <t>TerraClimate global dataset, average climatologies and monthly time series</t>
-  </si>
-  <si>
-    <t>Static avg., monthly time series</t>
   </si>
   <si>
     <t>Soil</t>
@@ -822,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D66D72-D802-CD45-955D-C65C9DF36BAB}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M21" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" topLeftCell="M18" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2039,16 +2030,16 @@
         <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>66</v>
@@ -2057,19 +2048,19 @@
         <v>91</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>38</v>
@@ -2104,16 +2095,16 @@
         <v>36</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>66</v>
@@ -2122,19 +2113,19 @@
         <v>91</v>
       </c>
       <c r="M20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>41</v>
@@ -2169,16 +2160,16 @@
         <v>36</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>66</v>
@@ -2187,25 +2178,25 @@
         <v>91</v>
       </c>
       <c r="M21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>91</v>
@@ -2234,16 +2225,16 @@
         <v>36</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>66</v>
@@ -2252,31 +2243,31 @@
         <v>91</v>
       </c>
       <c r="M22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>91</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -2293,22 +2284,22 @@
         <v>53</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>66</v>
@@ -2317,19 +2308,19 @@
         <v>91</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>102</v>
@@ -2349,10 +2340,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>53</v>
@@ -2364,19 +2355,19 @@
         <v>36</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>36</v>
@@ -2391,22 +2382,22 @@
         <v>93</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S24" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="T24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -2414,10 +2405,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>53</v>
@@ -2429,19 +2420,19 @@
         <v>36</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>36</v>
@@ -2456,22 +2447,22 @@
         <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>36</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>36</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2509,9 +2500,9 @@
     <hyperlink ref="P20" r:id="rId19" xr:uid="{0AEAFFB2-A691-4E4A-957C-451165B8C0C0}"/>
     <hyperlink ref="P21" r:id="rId20" xr:uid="{8B093B0B-E5FB-5942-ADEA-8A6BD68D7165}"/>
     <hyperlink ref="P22" r:id="rId21" xr:uid="{7735BF04-B198-DB4A-8BAC-A79200868D1A}"/>
-    <hyperlink ref="P23" r:id="rId22" xr:uid="{E7164C61-78AB-DC4E-9BCD-1EF0E9944E36}"/>
-    <hyperlink ref="P24" r:id="rId23" xr:uid="{E4A100CD-52A1-F246-A9ED-9805F9B8DB0A}"/>
-    <hyperlink ref="P25" r:id="rId24" xr:uid="{C9563803-BB6F-AF47-A4AD-983D546B9767}"/>
+    <hyperlink ref="P24" r:id="rId22" xr:uid="{E4A100CD-52A1-F246-A9ED-9805F9B8DB0A}"/>
+    <hyperlink ref="P25" r:id="rId23" xr:uid="{C9563803-BB6F-AF47-A4AD-983D546B9767}"/>
+    <hyperlink ref="P23" r:id="rId24" xr:uid="{B5E5238C-E3B5-324B-A501-E5ACD71F59B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/07_documentation/datasets.xlsx
+++ b/07_documentation/datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julian/Repositories/AgWISE-generic/07_documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD5DA9C-6B8B-144C-966A-DFD0D51C0232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C64D69-5F42-CF49-8F9D-8864F7F74A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="500" windowWidth="27700" windowHeight="16320" xr2:uid="{471A439A-4519-574D-8A00-B683E52A5A41}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="132">
   <si>
     <t>Theme</t>
   </si>
@@ -365,12 +365,6 @@
     <t>2.5 arc-min</t>
   </si>
   <si>
-    <t>TerraClimate global dataset, average climatologies</t>
-  </si>
-  <si>
-    <t>Weather and climate: TerraClimate climatology</t>
-  </si>
-  <si>
     <t>https://www.climatologylab.org/terraclimate.html</t>
   </si>
   <si>
@@ -429,6 +423,15 @@
   </si>
   <si>
     <t>g/kg</t>
+  </si>
+  <si>
+    <t>TerraClimate global dataset, average climatologies and time series</t>
+  </si>
+  <si>
+    <t>Weather and climate: TerraClimate</t>
+  </si>
+  <si>
+    <t>Static avg., time series</t>
   </si>
 </sst>
 </file>
@@ -813,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D66D72-D802-CD45-955D-C65C9DF36BAB}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2024,16 +2027,16 @@
         <v>53</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>107</v>
@@ -2048,19 +2051,19 @@
         <v>91</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>38</v>
@@ -2089,16 +2092,16 @@
         <v>53</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>107</v>
@@ -2113,19 +2116,19 @@
         <v>91</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>41</v>
@@ -2154,16 +2157,16 @@
         <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>107</v>
@@ -2178,25 +2181,25 @@
         <v>91</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>91</v>
@@ -2219,16 +2222,16 @@
         <v>53</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>107</v>
@@ -2243,31 +2246,31 @@
         <v>91</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>91</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -2284,16 +2287,16 @@
         <v>53</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>107</v>
@@ -2308,19 +2311,19 @@
         <v>91</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>102</v>
@@ -2340,10 +2343,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>53</v>
@@ -2355,19 +2358,19 @@
         <v>36</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>36</v>
@@ -2382,22 +2385,22 @@
         <v>93</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -2405,10 +2408,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>53</v>
@@ -2420,19 +2423,19 @@
         <v>36</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>36</v>
@@ -2447,22 +2450,22 @@
         <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>36</v>
       </c>
       <c r="R25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
